--- a/resources/META.xlsx
+++ b/resources/META.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\codando\METACRM\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C224037-A4C1-49A2-9ABC-65F20785A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3196AEE-9744-4ACC-BE11-324D6152FAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2" xr2:uid="{257C1EED-48DA-4880-BC5E-3ED5D6E31011}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:N8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,43 +1495,43 @@
       </c>
       <c r="B6" s="12">
         <f>SUM(C6:N6)</f>
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="C6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="D6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="E6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="G6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="H6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="I6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="J6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="K6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,43 +1845,43 @@
       </c>
       <c r="B6" s="12">
         <f>SUM(C6:N6)</f>
-        <v>300000</v>
+        <v>420000</v>
       </c>
       <c r="C6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="D6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="E6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="G6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="H6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="I6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="J6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="K6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N6" s="12">
-        <v>25000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
